--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1451070.508166115</v>
+        <v>-1392651.393484244</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241027</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10526577.43798969</v>
+        <v>10515486.22287545</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>347.3428665531798</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>89.57555736222854</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>225.9763411359356</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>43.23556789030481</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>84.00617591383157</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>317.8227870144768</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>358.3792131494172</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>7.355501256809367</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>151.7777682595294</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>41.55158192458652</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>274.5070575802009</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1291,16 +1291,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.59754480244057</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>97.76059213954871</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>414.1785884420962</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>113.7218216744503</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>39.59754480244381</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665256</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>24.40875262509115</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,10 +2065,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>239.7909713904971</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.2146311366309</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.6041873872574</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>3.423392126088632</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>24.62703520776638</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>116.2712455521792</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2719,19 +2719,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.139541480022588</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432308</v>
+        <v>71.53763939432389</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S34" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432308</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3797,7 +3797,7 @@
         <v>240.3943693174059</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>342.755070226764</v>
       </c>
       <c r="W41" t="n">
         <v>384.5711897043296</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742933144</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277816</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.10398844388</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>611.2526080871328</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>579.3832273019814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>549.6488865006806</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>525.8218609502925</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>124.4240295735564</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,25 +4328,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N2" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.64927858873</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X2" t="n">
-        <v>1392.64927858873</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1388.403558928788</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M3" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N3" t="n">
         <v>319.8519551513677</v>
       </c>
-      <c r="K3" t="n">
-        <v>319.8519551513677</v>
-      </c>
-      <c r="L3" t="n">
-        <v>319.8519551513677</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>739.9048540962709</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.4308897479549</v>
+        <v>247.3739631491588</v>
       </c>
       <c r="C4" t="n">
-        <v>516.4308897479549</v>
+        <v>247.3739631491588</v>
       </c>
       <c r="D4" t="n">
-        <v>350.5528969494776</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1453.08733823313</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>1181.060933819421</v>
+        <v>720.185388501638</v>
       </c>
       <c r="X4" t="n">
-        <v>935.6691791528337</v>
+        <v>474.7936338350505</v>
       </c>
       <c r="Y4" t="n">
-        <v>708.249508466942</v>
+        <v>247.3739631491588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1201.501429428291</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901426</v>
+        <v>763.3589566117141</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>731.4895758265627</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>701.755235025262</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7560298238305</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7560298238305</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>562.6504997812791</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599281</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2311.226536225377</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2052.004233542393</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2052.004233542393</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2051.18918299383</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1632.046719573141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1223.760595872795</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583395</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949818</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415351</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684888</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846504</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083429</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>429.4587135897368</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588819</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.4075544280089</v>
+        <v>787.0989890422071</v>
       </c>
       <c r="C7" t="n">
-        <v>173.8458429112338</v>
+        <v>614.537277525432</v>
       </c>
       <c r="D7" t="n">
-        <v>173.8458429112338</v>
+        <v>614.537277525432</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8458429112338</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>279.1879988019969</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.2055604317366</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>411.9640150028722</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>694.1821749533249</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1153.666042134238</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1595.924845291882</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2015.594094517664</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488005</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.87594205771</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.634573355706</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2104.755126934162</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1826.322126187267</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>1539.366618057697</v>
       </c>
       <c r="W7" t="n">
-        <v>1011.037598499475</v>
+        <v>1267.340213643989</v>
       </c>
       <c r="X7" t="n">
-        <v>765.6458438328877</v>
+        <v>1021.948458977401</v>
       </c>
       <c r="Y7" t="n">
-        <v>538.226173146996</v>
+        <v>794.5287882915095</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1114.066895752006</v>
       </c>
       <c r="C8" t="n">
-        <v>1612.790139173803</v>
+        <v>675.924422935429</v>
       </c>
       <c r="D8" t="n">
-        <v>1580.920758388652</v>
+        <v>644.0550421502776</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.33908412592</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4716545351282</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1540.366466236913</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.6348259499213</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>675.0731144331462</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D10" t="n">
-        <v>509.1951216346689</v>
+        <v>575.5992398531354</v>
       </c>
       <c r="E10" t="n">
-        <v>339.4371178854062</v>
+        <v>575.5992398531354</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>398.8921858148916</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>233.3009108407193</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>93.39873653109379</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>308.7021231727439</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>728.7550221176472</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1148.807921062551</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1410.227921950848</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1138.201517537139</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1039.453444668908</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1039.453444668908</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1782.747630232154</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1344.605157415577</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>908.6953725900216</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>908.6953725900216</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>480.8279429992294</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43011162249326</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43011162249326</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>514.2680097025511</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1348.618301660729</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>2257.2233989308</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>3235.013261770011</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>3235.013261770011</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3235.013261770011</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3235.013261770011</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3781.512047728606</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481663</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.0142386655</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3646.947011538538</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3387.724708855555</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3025.107758789381</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2620.252304200415</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2201.109840779726</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2201.109840779726</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409261</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775683</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241216</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510753</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672369</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334208</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>105.0769954100909</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>105.0769954100909</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>105.0769954100909</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>105.0769954100909</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>105.0769954100909</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.866858249302</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1625.080305634102</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.080305634102</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634102</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569394</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025884</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414684</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206892</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1158.071482861515</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>985.5097713447395</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>819.6317785462622</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E13" t="n">
-        <v>649.8737747969996</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F13" t="n">
-        <v>473.1667207587557</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>307.5754457845834</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>167.6732714749579</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143231</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854587</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534198</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2515.013742155801</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.134295734256</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.263768790367</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.308260660798</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.281856247089</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.890101580502</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1349.890101580502</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
         <v>793.2056155771595</v>
@@ -5276,22 +5276,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>388.1086717343214</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M14" t="n">
-        <v>3603.973621145286</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
@@ -5321,7 +5321,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1011.560997133398</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>838.9992856166232</v>
+        <v>750.3393363912949</v>
       </c>
       <c r="D16" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928176</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928176</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545738</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804015</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5464,22 +5464,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2513.605954495037</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2235.172953748142</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1948.217445618573</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1676.191041204865</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1430.799286538277</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1203.379615852385</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,25 +5519,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5552,13 +5552,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1272.606004876648</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354727</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066083</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745692</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955482</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173582</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303139</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.41112617357</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759861</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1476.384721759861</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,19 +5753,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>832.0502353276421</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C22" t="n">
-        <v>832.0502353276421</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="D22" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354732</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>269.4112304877946</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>1103.761522445973</v>
       </c>
       <c r="L29" t="n">
-        <v>2412.031452783383</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="M29" t="n">
-        <v>3569.079287993933</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6546,22 +6546,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6610,7 +6610,7 @@
         <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6698,16 +6698,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992527</v>
+        <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886283</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030271</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666405</v>
+        <v>607.5224631666412</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412728</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799766</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832272</v>
+        <v>174.521082083228</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
         <v>495.7456864773249</v>
@@ -6901,7 +6901,7 @@
         <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298638</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M35" t="n">
-        <v>2758.053686176683</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992527</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886283</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030271</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666405</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412728</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799766</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832272</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708293</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298638</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7330,28 +7330,28 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
         <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7375,7 +7375,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7591,28 +7591,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L44" t="n">
-        <v>2177.324623035295</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M44" t="n">
-        <v>3334.372458245845</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="N44" t="n">
-        <v>3334.372458245845</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716792</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7822,34 +7822,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
@@ -8152,10 +8152,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>320.0858880793244</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>517.1965904184166</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8289,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491819</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>223.4729892007681</v>
+        <v>285.0688484348007</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>202.8975909570961</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>917.7829265354251</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>987.6665281204155</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>987.6665281204157</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>547.6903508937376</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965068</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>801.4298400828734</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,16 +9167,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>807.5312715220462</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9401,22 +9401,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9884,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>988.0565576103677</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>301.8344985190274</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,16 +10422,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,13 +10592,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049986</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>172.0683445943832</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>818.3363029781626</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>86.41818153523118</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>143.9916497573963</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>188.9746976505468</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>120.9836449801877</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.857986337962473</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>131.2385495991635</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.0118993322381</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>3.146865729424519</v>
       </c>
       <c r="Y19" t="n">
-        <v>122.9308428424019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.29624514453988</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>160.7958207444039</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>58.66873794568212</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>73.6291869796181</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>858509.4490849822</v>
+        <v>703659.8679930321</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>930986.2734063059</v>
+        <v>933124.7974951047</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>930986.2734063059</v>
+        <v>933480.5738178394</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>765128.861611317</v>
+        <v>922268.205816643</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922268.205816643</v>
+        <v>922268.2058166427</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922268.2058166427</v>
+        <v>922268.205816643</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922268.2058166427</v>
+        <v>922268.205816643</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922268.2058166427</v>
+        <v>922268.2058166426</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938292.9999906648</v>
+        <v>937830.6512438216</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12353.29423898016</v>
+        <v>10109.09741156059</v>
       </c>
       <c r="C2" t="n">
         <v>13403.68299726021</v>
@@ -26320,10 +26320,10 @@
         <v>13403.68299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>10927.24277601424</v>
+        <v>13171.43960343381</v>
       </c>
       <c r="F2" t="n">
-        <v>13171.43960343382</v>
+        <v>13171.43960343381</v>
       </c>
       <c r="G2" t="n">
         <v>13171.43960343381</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246203</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106441</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880864998</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658728</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338193</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099788</v>
+        <v>21768.74196143537</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.22459628</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713893</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151319.1470741829</v>
+        <v>100082.6006667567</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>129714.706707002</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.2398651109</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>11818.05667031436</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
         <v>14245.20557049264</v>
@@ -26445,19 +26445,19 @@
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
-        <v>19587.56338712589</v>
+        <v>19587.56338712591</v>
       </c>
       <c r="M4" t="n">
-        <v>19587.5633871259</v>
+        <v>29443.15222066925</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066922</v>
+        <v>29443.15222066923</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066921</v>
+        <v>29443.15222066926</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066923</v>
+        <v>29443.15222066925</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295553</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972127</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-340581.941632135</v>
+        <v>-291919.0506106984</v>
       </c>
       <c r="C6" t="n">
-        <v>-221321.3450050731</v>
+        <v>-255783.4383051593</v>
       </c>
       <c r="D6" t="n">
-        <v>-221321.3450050731</v>
+        <v>-193715.9979906972</v>
       </c>
       <c r="E6" t="n">
-        <v>-229151.0268905212</v>
+        <v>-261170.3381332838</v>
       </c>
       <c r="F6" t="n">
-        <v>-162054.7339294386</v>
+        <v>-78815.22891223399</v>
       </c>
       <c r="G6" t="n">
-        <v>-78792.00457285135</v>
+        <v>-78815.22891223399</v>
       </c>
       <c r="H6" t="n">
-        <v>-78792.00457285135</v>
+        <v>-78815.22891223399</v>
       </c>
       <c r="I6" t="n">
-        <v>-78792.00457285135</v>
+        <v>-78815.22891223399</v>
       </c>
       <c r="J6" t="n">
-        <v>-189806.4699178415</v>
+        <v>-189829.6942572242</v>
       </c>
       <c r="K6" t="n">
-        <v>-78792.00457285135</v>
+        <v>-132483.5559756159</v>
       </c>
       <c r="L6" t="n">
-        <v>-98255.60719912422</v>
+        <v>-107035.7808895617</v>
       </c>
       <c r="M6" t="n">
-        <v>-225661.2635244064</v>
+        <v>-229132.7846873507</v>
       </c>
       <c r="N6" t="n">
-        <v>-148357.8846066377</v>
+        <v>-91555.08394949873</v>
       </c>
       <c r="O6" t="n">
-        <v>-91555.08394949872</v>
+        <v>-91555.08394949876</v>
       </c>
       <c r="P6" t="n">
         <v>-91555.08394949873</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204157</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179802</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977242</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643295</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179802</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977242</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273075</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179802</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977242</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643295</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>287.5590372199036</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>196.6632956489873</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>200.0797771344423</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>113.7278999628231</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>65.20954214546714</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,10 +27667,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>182.5449312749879</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>117.528372110042</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>392.2094661638244</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>154.9299398130869</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>48.17580493063084</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>145.177244980373</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P46" t="n">
-        <v>16.2357103387485</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,10 +34772,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34863,19 +34863,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>320.0858880793244</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>517.1965904184166</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491819</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,22 +35091,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>223.4729892007681</v>
+        <v>285.0688484348007</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>202.8975909570961</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>917.7829265354251</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>987.6665281204155</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>987.6665281204157</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>547.6903508937376</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>288.7351832965068</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>801.4298400828734</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>807.5312715220462</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908388</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36121,22 +36121,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908445</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,16 +36604,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>988.0565576103677</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1050.672356668189</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>301.8344985190274</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049986</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>172.0683445943832</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37470,19 +37470,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37707,10 +37707,10 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033056</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
         <v>440.1440428900419</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37950,7 +37950,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>818.3363029781626</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38190,7 +38190,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552555</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
         <v>186.127402120901</v>
